--- a/medicine/Psychotrope/Glen_Keith/Glen_Keith.xlsx
+++ b/medicine/Psychotrope/Glen_Keith/Glen_Keith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glen Keith est une distillerie de whisky située à Keith, dans le Speyside, en Écosse.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glen Keith a été fondée en 1958 par Chivas Brother's dans le but d'élaborer du single malt par le procédé de la triple distillation[1]. Finalement, cette méthode fut abandonnée en 1970. À cette date le nombre d'alambics fut porté de trois à cinq. En 1983 un sixième alambic entra en service. Glen Keith fut la première distillerie écossaise à chauffer ses alambics au gaz et à informatiser son outil de production. En 2001, la société The Chivas and Glenlivet Group fut rachetée par le groupe Pernod Ricard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glen Keith a été fondée en 1958 par Chivas Brother's dans le but d'élaborer du single malt par le procédé de la triple distillation. Finalement, cette méthode fut abandonnée en 1970. À cette date le nombre d'alambics fut porté de trois à cinq. En 1983 un sixième alambic entra en service. Glen Keith fut la première distillerie écossaise à chauffer ses alambics au gaz et à informatiser son outil de production. En 2001, la société The Chivas and Glenlivet Group fut rachetée par le groupe Pernod Ricard.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'essentiel de la production de la distillerie est destiné à l'élaboration de blends de la famille Chivas[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'essentiel de la production de la distillerie est destiné à l'élaboration de blends de la famille Chivas.
 </t>
         </is>
       </c>
